--- a/pandas/data/out/eur_data_sorted.xlsx
+++ b/pandas/data/out/eur_data_sorted.xlsx
@@ -567,7 +567,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
